--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Intent_Ruby.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Intent_Ruby.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -301,12 +301,6 @@
 validate_CompareEditText=0,Email_Subject_!
 validate_CompareEditText=1,Email_body_content_!
 };</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>validate1
@@ -415,7 +409,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -932,19 +925,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.02265625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" thickBot="1">
@@ -990,7 +983,9 @@
       <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1006,9 +1001,7 @@
       <c r="I2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="J2" s="10"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="255.75" thickBot="1">
@@ -1065,7 +1058,9 @@
         <v>1</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1077,9 +1072,7 @@
         <v>33</v>
       </c>
       <c r="I5" s="10"/>
-      <c r="J5" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="J5" s="10"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="171.75" thickBot="1">
@@ -1090,7 +1083,9 @@
         <v>1</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="4" t="s">
         <v>16</v>
       </c>
@@ -1102,9 +1097,7 @@
         <v>34</v>
       </c>
       <c r="I6" s="10"/>
-      <c r="J6" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="J6" s="10"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="217.5" thickBot="1">
@@ -1115,7 +1108,9 @@
         <v>1</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1127,9 +1122,7 @@
         <v>35</v>
       </c>
       <c r="I7" s="10"/>
-      <c r="J7" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="J7" s="10"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="217.5" thickBot="1">
@@ -1140,21 +1133,21 @@
         <v>1</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I8" s="10"/>
-      <c r="J8" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="J8" s="10"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="217.5" thickBot="1">
@@ -1175,15 +1168,13 @@
         <v>1</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="J9" s="10"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="243" thickBot="1">
@@ -1203,15 +1194,13 @@
         <v>1</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I10" s="10"/>
-      <c r="J10" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="J10" s="10"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="230.25" thickBot="1">
@@ -1221,7 +1210,9 @@
       <c r="B11" s="12">
         <v>1</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
@@ -1235,9 +1226,7 @@
         <v>36</v>
       </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="J11" s="10"/>
       <c r="K11" s="2"/>
     </row>
   </sheetData>
@@ -1256,12 +1245,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1">
